--- a/data.xlsx
+++ b/data.xlsx
@@ -503,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['Furniture &amp; Decor', 'Home Decor', 'Wall Decor']</t>
+          <t>['Sports &amp; Outdoors', 'Team Sports', 'Basketball', 'Accessories', 'Water Bottles', 'Water Bottle Accessories']</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,14 +511,10 @@
           <t>pdp</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-83%</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://static-01.daraz.pk/p/aa8eb57eda021659c0250f1fded7d47a.jpg</t>
+          <t>https://pk-live-21.slatic.net/kf/S11d45b920f584ff7a47f5a6b8d6b3023p.jpg</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -526,36 +522,36 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lifestyle Glory</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>124660610</t>
+          <t>39704</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>466018780</v>
+        <v>432418961</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Lifestyle Glory</t>
+          <t>Any 3 Store</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2201459932</v>
+        <v>2064519739</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Lifestyle Glory Brand Decorative Butterfly Wall Shelf, Decoration Candlestick, Wall Décor Ideas, Wooden Wall Shelves | New Premium Wooden Wall Art Light Big Size I Wall Decor Art for bedroom I DIY Design Decoration Piece for Home Decor I Home Furniture</t>
+          <t>Bolttle Lovely Animals Creative Gift Outdoor Portable Sports Cycling Camping Hiking Bicycle School Kids Water Bottle</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6005020329088</v>
+        <v>6005054538003</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Rs. 500</t>
+          <t>Rs. 600</t>
         </is>
       </c>
     </row>
